--- a/7RMart/src/test/resources/7rmart data.xlsx
+++ b/7RMart/src/test/resources/7rmart data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arun\eclipse-workspace\7rmart\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arun\git\7RMart\7RMart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E44590-F133-4D9A-B3B6-A2ED1B8CCCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E70459-767F-454E-9CCC-646D89A2C82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2813" yWindow="3472" windowWidth="16200" windowHeight="9308" firstSheet="1" activeTab="4" xr2:uid="{BBD1C1CB-ABAE-45C4-ABCA-85B659D1E0EE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{BBD1C1CB-ABAE-45C4-ABCA-85B659D1E0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="managecontact" sheetId="5" r:id="rId3"/>
     <sheet name="managefooter" sheetId="7" r:id="rId4"/>
     <sheet name="adminlogin" sheetId="8" r:id="rId5"/>
+    <sheet name="subcategory" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -89,6 +90,18 @@
   </si>
   <si>
     <t>blah blah house ,kazhakootum,tvm,694033</t>
+  </si>
+  <si>
+    <t>sub category</t>
+  </si>
+  <si>
+    <t>upload link</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arun\\Downloads\\mango.jpg</t>
+  </si>
+  <si>
+    <t>Miracle fruit</t>
   </si>
 </sst>
 </file>
@@ -648,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CAA4C0-0916-4903-BBCA-E5F6080758A7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -677,4 +690,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F33DA95-727B-410D-A823-722C5D376A95}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>